--- a/coordinator/excelFiles/alumni_data_report.xlsx
+++ b/coordinator/excelFiles/alumni_data_report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
   <si>
     <t>Student Number</t>
   </si>
@@ -86,31 +86,10 @@
     <t>Reyes</t>
   </si>
   <si>
-    <t>Andrei</t>
-  </si>
-  <si>
-    <t>Mercado</t>
-  </si>
-  <si>
     <t>Biya</t>
   </si>
   <si>
     <t>Sungit</t>
-  </si>
-  <si>
-    <t>Maria</t>
-  </si>
-  <si>
-    <t>Benz</t>
-  </si>
-  <si>
-    <t>BSCS</t>
-  </si>
-  <si>
-    <t>Rudolf</t>
-  </si>
-  <si>
-    <t>Reindeer</t>
   </si>
 </sst>
 </file>
@@ -450,7 +429,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -621,7 +600,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>202013211</v>
+        <v>202119099</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
@@ -630,7 +609,7 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
@@ -639,76 +618,7 @@
         <v>11</v>
       </c>
       <c r="G8">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>202119099</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9">
         <v>2024</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>202011115</v>
-      </c>
-      <c r="B10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10">
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>201231231</v>
-      </c>
-      <c r="B11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11">
-        <v>2022</v>
       </c>
     </row>
   </sheetData>

--- a/coordinator/excelFiles/alumni_data_report.xlsx
+++ b/coordinator/excelFiles/alumni_data_report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
   <si>
     <t>Student Number</t>
   </si>
@@ -29,6 +29,15 @@
     <t>Sex</t>
   </si>
   <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>Work Location</t>
+  </si>
+  <si>
     <t>College</t>
   </si>
   <si>
@@ -38,19 +47,100 @@
     <t>Year Graduated</t>
   </si>
   <si>
+    <t>Rudolf</t>
+  </si>
+  <si>
+    <t>Reindeer</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Barista</t>
+  </si>
+  <si>
+    <t>Big Brew</t>
+  </si>
+  <si>
+    <t>Local</t>
+  </si>
+  <si>
+    <t>CEIT</t>
+  </si>
+  <si>
+    <t>BSIT</t>
+  </si>
+  <si>
+    <t>Roberta</t>
+  </si>
+  <si>
+    <t>Subizi</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>No info</t>
+  </si>
+  <si>
+    <t>Alexander</t>
+  </si>
+  <si>
+    <t>Samo</t>
+  </si>
+  <si>
+    <t>Juan</t>
+  </si>
+  <si>
+    <t>Dela Cruz</t>
+  </si>
+  <si>
+    <t>Mario</t>
+  </si>
+  <si>
+    <t>Santos</t>
+  </si>
+  <si>
+    <t>Kyla</t>
+  </si>
+  <si>
+    <t>Reyes</t>
+  </si>
+  <si>
+    <t>Maria</t>
+  </si>
+  <si>
+    <t>Benz</t>
+  </si>
+  <si>
+    <t>Professor I</t>
+  </si>
+  <si>
+    <t>CvSU</t>
+  </si>
+  <si>
+    <t>BSCS</t>
+  </si>
+  <si>
+    <t>Andrei</t>
+  </si>
+  <si>
+    <t>Mercado</t>
+  </si>
+  <si>
     <t>Alfred</t>
   </si>
   <si>
     <t>Nuguit</t>
   </si>
   <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>CEIT</t>
-  </si>
-  <si>
-    <t>BSIT</t>
+    <t>Web Developer</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Foreign</t>
   </si>
   <si>
     <t>Smile</t>
@@ -59,31 +149,25 @@
     <t>Barcelona</t>
   </si>
   <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>Alexander</t>
-  </si>
-  <si>
-    <t>Samo</t>
-  </si>
-  <si>
-    <t>Juan</t>
-  </si>
-  <si>
-    <t>Dela Cruz</t>
-  </si>
-  <si>
-    <t>Mario</t>
-  </si>
-  <si>
-    <t>Santos</t>
-  </si>
-  <si>
-    <t>Kyla</t>
-  </si>
-  <si>
-    <t>Reyes</t>
+    <t>Instinctools, Manila</t>
+  </si>
+  <si>
+    <t>Jomal</t>
+  </si>
+  <si>
+    <t>Hiray</t>
+  </si>
+  <si>
+    <t>Randy</t>
+  </si>
+  <si>
+    <t>Orton</t>
+  </si>
+  <si>
+    <t>Rey</t>
+  </si>
+  <si>
+    <t>Mysterio</t>
   </si>
   <si>
     <t>Biya</t>
@@ -429,7 +513,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,7 +521,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -459,165 +543,461 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2">
-        <v>202014190</v>
+        <v>201231231</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3">
+        <v>201231233</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3">
         <v>2024</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>202014293</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3">
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>202011111</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4">
         <v>2024</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>202011112</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5">
         <v>2024</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>202011113</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6">
+        <v>21</v>
+      </c>
+      <c r="G6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6">
         <v>2024</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>202011114</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7">
         <v>2024</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:10">
       <c r="A8">
+        <v>202011115</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9">
+        <v>202013211</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10">
+        <v>202014190</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11">
+        <v>202014293</v>
+      </c>
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12">
+        <v>202016142</v>
+      </c>
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13">
+        <v>202031332</v>
+      </c>
+      <c r="B13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14">
+        <v>202031333</v>
+      </c>
+      <c r="B14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" t="s">
+        <v>34</v>
+      </c>
+      <c r="J14">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15">
         <v>202119099</v>
       </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8">
+      <c r="B15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15">
         <v>2024</v>
       </c>
     </row>
